--- a/exports/L154-tok.xml-result-csv.xlsx
+++ b/exports/L154-tok.xml-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6D2EB-19F8-A14E-92AC-14885070C357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F0E78-37F7-604C-8EEE-FB21307D8CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="460" windowWidth="22780" windowHeight="17040" xr2:uid="{7F7E06A3-6155-3C40-8D0A-1C38F9D92ED9}"/>
+    <workbookView xWindow="6020" yWindow="460" windowWidth="22780" windowHeight="17040" xr2:uid="{7F7E06A3-6155-3C40-8D0A-1C38F9D92ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>iin</t>
   </si>
   <si>
-    <t>is this an adverb? "together"</t>
-  </si>
-  <si>
     <t>together</t>
   </si>
   <si>
@@ -1531,6 +1528,9 @@
   </si>
   <si>
     <t>kuni yu</t>
+  </si>
+  <si>
+    <t>adverb "together" YES!</t>
   </si>
 </sst>
 </file>
@@ -1967,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E02F06-54DA-684E-8740-1817A075A5A4}">
   <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1990,7 +1990,7 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="17">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34">
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="85">
+    <row r="3" spans="1:15" ht="34">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="17">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="119">
+    <row r="5" spans="1:15" ht="34">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="102">
+    <row r="6" spans="1:15" ht="34">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="68">
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="3" t="s">
         <v>110</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="102">
+    <row r="8" spans="1:15" ht="34">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="119">
+    <row r="9" spans="1:15" ht="34">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34">
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="3" t="s">
         <v>120</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="102">
+    <row r="12" spans="1:15" ht="34">
       <c r="A12" s="3" t="s">
         <v>133</v>
       </c>
@@ -2263,9 +2263,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="102">
+    <row r="13" spans="1:15" ht="34">
       <c r="A13" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>135</v>
@@ -2288,13 +2288,13 @@
         <v>138</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>88</v>
@@ -2303,7 +2303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51">
+    <row r="15" spans="1:15" ht="17">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="68">
+    <row r="16" spans="1:15" ht="17">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2343,15 +2343,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="85">
+    <row r="17" spans="1:15" ht="34">
       <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>96</v>
@@ -2360,15 +2360,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="85">
+    <row r="18" spans="1:15" ht="34">
       <c r="A18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>21</v>
@@ -2380,15 +2380,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="68">
+    <row r="19" spans="1:15" ht="17">
       <c r="A19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>88</v>
@@ -2397,15 +2397,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="51">
+    <row r="20" spans="1:15" ht="17">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>25</v>
@@ -2417,15 +2417,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="68">
+    <row r="21" spans="1:15" ht="17">
       <c r="A21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>100</v>
@@ -2434,15 +2434,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="85">
+    <row r="22" spans="1:15" ht="34">
       <c r="A22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>21</v>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="23" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>50</v>
@@ -2474,15 +2474,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="102">
+    <row r="24" spans="1:15" ht="34">
       <c r="A24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>50</v>
@@ -2494,15 +2494,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="34">
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>67</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="26" spans="1:15" s="7" customFormat="1" ht="17">
       <c r="A26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>100</v>
@@ -2536,16 +2536,16 @@
     </row>
     <row r="27" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>102</v>
@@ -2557,15 +2557,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="85">
+    <row r="28" spans="1:15" ht="34">
       <c r="A28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>56</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="29" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A29" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>107</v>
@@ -2596,13 +2596,13 @@
     </row>
     <row r="30" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>107</v>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="32" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="H32" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>100</v>
@@ -2648,15 +2648,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="102">
+    <row r="33" spans="1:15" ht="34">
       <c r="A33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>50</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="34" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>82</v>
@@ -2688,15 +2688,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="51">
+    <row r="35" spans="1:15" ht="17">
       <c r="A35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>25</v>
@@ -2708,15 +2708,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="51">
+    <row r="36" spans="1:15" ht="17">
       <c r="A36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>25</v>
@@ -2728,15 +2728,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="68">
+    <row r="37" spans="1:15" ht="17">
       <c r="A37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>88</v>
@@ -2745,15 +2745,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="102">
+    <row r="38" spans="1:15" ht="34">
       <c r="A38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>115</v>
@@ -2762,15 +2762,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="85">
+    <row r="39" spans="1:15" ht="34">
       <c r="A39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>96</v>
@@ -2779,29 +2779,29 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="136">
+    <row r="40" spans="1:15" ht="34">
       <c r="A40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="102">
+    <row r="41" spans="1:15" ht="34">
       <c r="A41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>107</v>
@@ -2815,13 +2815,13 @@
     </row>
     <row r="42" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A42" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>92</v>
@@ -2829,16 +2829,16 @@
     </row>
     <row r="43" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>92</v>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="44" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A44" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>21</v>
@@ -2864,15 +2864,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="85">
+    <row r="45" spans="1:15" ht="34">
       <c r="A45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>21</v>
@@ -2884,15 +2884,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="85">
+    <row r="46" spans="1:15" ht="34">
       <c r="A46" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>56</v>
@@ -2918,12 +2918,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="68">
+    <row r="48" spans="1:15" ht="17">
       <c r="A48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>100</v>
@@ -2932,29 +2932,29 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="136">
+    <row r="49" spans="1:15" ht="34">
       <c r="A49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="102">
+    <row r="50" spans="1:15" ht="34">
       <c r="A50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>50</v>
@@ -2966,12 +2966,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="85">
+    <row r="51" spans="1:15" ht="34">
       <c r="A51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>96</v>
@@ -2980,15 +2980,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="85">
+    <row r="52" spans="1:15" ht="34">
       <c r="A52" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>96</v>
@@ -2997,15 +2997,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="85">
+    <row r="53" spans="1:15" ht="34">
       <c r="A53" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>21</v>
@@ -3017,12 +3017,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51">
+    <row r="54" spans="1:15" ht="17">
       <c r="A54" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>43</v>
@@ -3034,29 +3034,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="136">
+    <row r="55" spans="1:15" ht="34">
       <c r="A55" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="68">
+    <row r="56" spans="1:15" ht="17">
       <c r="A56" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>88</v>
@@ -3065,26 +3065,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="136">
+    <row r="57" spans="1:15" ht="34">
       <c r="A57" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="102">
+    <row r="58" spans="1:15" ht="34">
       <c r="A58" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>115</v>
@@ -3093,12 +3093,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="136">
+    <row r="59" spans="1:15" ht="34">
       <c r="A59" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>99</v>
@@ -3107,15 +3107,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="119">
+    <row r="60" spans="1:15" ht="34">
       <c r="A60" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>102</v>
@@ -3127,15 +3127,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="85">
+    <row r="61" spans="1:15" ht="34">
       <c r="A61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>21</v>
@@ -3147,15 +3147,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="85">
+    <row r="62" spans="1:15" ht="34">
       <c r="A62" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>56</v>
@@ -3164,15 +3164,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="51">
+    <row r="63" spans="1:15" ht="17">
       <c r="A63" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>43</v>
@@ -3184,35 +3184,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="68">
+    <row r="64" spans="1:15" ht="17">
       <c r="A64" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="M64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17">
+      <c r="A65" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="68">
-      <c r="A65" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="E65" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>40</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="66" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A66" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>96</v>
@@ -3237,13 +3237,13 @@
     </row>
     <row r="67" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A67" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>25</v>
@@ -3255,15 +3255,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="51">
+    <row r="68" spans="1:15" ht="17">
       <c r="A68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>25</v>
@@ -3275,15 +3275,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="102">
+    <row r="69" spans="1:15" ht="34">
       <c r="A69" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>115</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="70" spans="1:15" s="7" customFormat="1" ht="34">
       <c r="A70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>40</v>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="71" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A71" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>21</v>
@@ -3323,15 +3323,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="85">
+    <row r="72" spans="1:15" ht="34">
       <c r="A72" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>21</v>
@@ -3343,15 +3343,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="68">
+    <row r="73" spans="1:15" ht="17">
       <c r="A73" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>88</v>
@@ -3377,7 +3377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="102">
+    <row r="75" spans="1:15" ht="34">
       <c r="A75" s="3" t="s">
         <v>126</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="51">
+    <row r="77" spans="1:15" ht="17">
       <c r="A77" s="3" t="s">
         <v>129</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="51">
+    <row r="78" spans="1:15" ht="17">
       <c r="A78" s="3" t="s">
         <v>129</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="68">
+    <row r="80" spans="1:15" ht="17">
       <c r="A80" s="3" t="s">
         <v>132</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="68">
+    <row r="81" spans="1:15" ht="17">
       <c r="A81" s="3" t="s">
         <v>132</v>
       </c>
@@ -3516,13 +3516,13 @@
     </row>
     <row r="82" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A82" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>21</v>
@@ -3536,13 +3536,13 @@
     </row>
     <row r="83" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A83" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>35</v>
@@ -3554,15 +3554,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="85">
+    <row r="84" spans="1:15" ht="34">
       <c r="A84" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>96</v>
@@ -3571,18 +3571,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="119">
+    <row r="85" spans="1:15" ht="34">
       <c r="A85" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>102</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="86" spans="1:15" s="7" customFormat="1" ht="17">
       <c r="A86" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>100</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="87" spans="1:15" s="7" customFormat="1" ht="17">
       <c r="A87" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>40</v>
@@ -3621,16 +3621,16 @@
     </row>
     <row r="88" spans="1:15" s="7" customFormat="1" ht="17">
       <c r="A88" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>43</v>
@@ -3642,35 +3642,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="68">
+    <row r="89" spans="1:15" ht="17">
       <c r="A89" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="M89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="34">
+      <c r="A90" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="85">
-      <c r="A90" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>56</v>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="91" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A91" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="H91" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>96</v>
@@ -3696,15 +3696,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="85">
+    <row r="92" spans="1:15" ht="34">
       <c r="A92" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>96</v>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="93" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A93" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>481</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>482</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>92</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="94" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A94" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="E94" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>102</v>
@@ -3750,41 +3750,41 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="68">
+    <row r="95" spans="1:15" ht="17">
       <c r="A95" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="M95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A96" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>17</v>
@@ -3798,19 +3798,19 @@
     </row>
     <row r="97" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A97" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="F97" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H97" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="I97" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>17</v>
@@ -3822,21 +3822,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34">
+    <row r="98" spans="1:15" ht="17">
       <c r="A98" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>17</v>
@@ -3850,16 +3850,16 @@
     </row>
     <row r="99" spans="1:15" s="7" customFormat="1" ht="34">
       <c r="A99" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>102</v>
@@ -3871,18 +3871,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="119">
+    <row r="100" spans="1:15" ht="34">
       <c r="A100" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>102</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="101" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A101" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="E101" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H101" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>115</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="102" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A102" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="E102" s="9" t="s">
+      <c r="H102" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>35</v>
@@ -3937,15 +3937,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="102">
+    <row r="103" spans="1:15" ht="34">
       <c r="A103" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>107</v>
@@ -3957,15 +3957,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="68">
+    <row r="104" spans="1:15" ht="17">
       <c r="A104" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>35</v>
@@ -3977,15 +3977,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="102">
+    <row r="105" spans="1:15" ht="34">
       <c r="A105" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>107</v>
@@ -3997,9 +3997,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="102">
+    <row r="106" spans="1:15" ht="34">
       <c r="A106" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>58</v>
@@ -4017,15 +4017,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="102">
+    <row r="107" spans="1:15" ht="34">
       <c r="A107" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>115</v>
@@ -4036,13 +4036,13 @@
     </row>
     <row r="108" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A108" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="H108" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>31</v>
@@ -4054,15 +4054,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="51">
+    <row r="109" spans="1:15" ht="17">
       <c r="A109" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>31</v>
@@ -4076,53 +4076,53 @@
     </row>
     <row r="110" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A110" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="H110" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>279</v>
-      </c>
       <c r="M110" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N110" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="N110" s="9" t="s">
+      <c r="O110" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="O110" s="9" t="s">
+    </row>
+    <row r="111" spans="1:15" ht="17">
+      <c r="A111" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="34">
-      <c r="A111" s="3" t="s">
+      <c r="E111" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="M111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A112" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="E112" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>40</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="113" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A113" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="H113" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>102</v>
@@ -4150,13 +4150,13 @@
     </row>
     <row r="114" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A114" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="H114" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>35</v>
@@ -4193,13 +4193,13 @@
     </row>
     <row r="116" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A116" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>50</v>
@@ -4211,15 +4211,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="85">
+    <row r="117" spans="1:15" ht="34">
       <c r="A117" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>96</v>
@@ -4230,42 +4230,42 @@
     </row>
     <row r="118" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A118" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="H118" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="M118" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="M118" s="9" t="s">
+      <c r="N118" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="N118" s="9" t="s">
+      <c r="O118" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="O118" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="34">
+    </row>
+    <row r="119" spans="1:15" ht="17">
       <c r="A119" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="5" customFormat="1" ht="34">
@@ -4299,13 +4299,13 @@
     </row>
     <row r="121" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A121" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="H121" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="M121" s="9" t="s">
         <v>82</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="123" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A123" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>73</v>
@@ -4376,13 +4376,13 @@
     </row>
     <row r="125" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A125" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="H125" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="M125" s="9" t="s">
         <v>25</v>
@@ -4396,16 +4396,16 @@
     </row>
     <row r="126" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A126" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E126" s="9" t="s">
+      <c r="H126" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="M126" s="9" t="s">
         <v>31</v>
@@ -4419,16 +4419,16 @@
     </row>
     <row r="127" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A127" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="E127" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="H127" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="M127" s="9" t="s">
         <v>88</v>
@@ -4439,30 +4439,30 @@
     </row>
     <row r="128" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A128" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M128" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N128" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="N128" s="9" t="s">
+      <c r="O128" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="O128" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A129" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="H129" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="M129" s="9" t="s">
         <v>56</v>
@@ -4471,15 +4471,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="85">
+    <row r="130" spans="1:15" ht="34">
       <c r="A130" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>56</v>
@@ -4488,15 +4488,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="102">
+    <row r="131" spans="1:15" ht="34">
       <c r="A131" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>115</v>
@@ -4507,13 +4507,13 @@
     </row>
     <row r="132" spans="1:15" ht="38" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>107</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="133" spans="1:15" ht="32" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>56</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="134" spans="1:15" ht="50" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>92</v>
@@ -4558,13 +4558,13 @@
     </row>
     <row r="135" spans="1:15" ht="34" customHeight="1">
       <c r="A135" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>21</v>
@@ -4578,16 +4578,16 @@
     </row>
     <row r="136" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A136" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="E136" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="H136" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="M136" s="9" t="s">
         <v>60</v>
@@ -4612,22 +4612,22 @@
     </row>
     <row r="138" spans="1:15" ht="63" customHeight="1">
       <c r="A138" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="E138" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>92</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="139" spans="1:15" s="7" customFormat="1" ht="34">
       <c r="A139" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>92</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="140" spans="1:15" ht="34">
       <c r="A140" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>21</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="141" spans="1:15" s="9" customFormat="1" ht="53" customHeight="1">
       <c r="A141" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C141" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="E141" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="H141" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="M141" s="9" t="s">
         <v>92</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="142" spans="1:15" s="9" customFormat="1" ht="48" customHeight="1">
       <c r="A142" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="H142" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="M142" s="9" t="s">
         <v>107</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="143" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A143" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="H143" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="M143" s="9" t="s">
         <v>96</v>
@@ -4720,13 +4720,13 @@
     </row>
     <row r="144" spans="1:15" ht="35" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>92</v>
@@ -4734,27 +4734,27 @@
     </row>
     <row r="145" spans="1:15" ht="35" customHeight="1">
       <c r="A145" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="H145" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="51">
+    <row r="146" spans="1:15" ht="17">
       <c r="A146" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>31</v>
@@ -4768,13 +4768,13 @@
     </row>
     <row r="147" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A147" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="M147" s="9" t="s">
         <v>43</v>
@@ -4788,13 +4788,13 @@
     </row>
     <row r="148" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A148" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="H148" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M148" s="9" t="s">
         <v>31</v>
@@ -4806,15 +4806,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="68">
+    <row r="149" spans="1:15" ht="17">
       <c r="A149" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>35</v>
@@ -4828,33 +4828,33 @@
     </row>
     <row r="150" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A150" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="H150" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="M150" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="68">
+    <row r="151" spans="1:15" ht="17">
       <c r="A151" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>40</v>
@@ -4862,30 +4862,30 @@
     </row>
     <row r="152" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A152" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="E152" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M152" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="68">
+    <row r="153" spans="1:15" ht="17">
       <c r="A153" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>88</v>
@@ -4894,18 +4894,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="102">
+    <row r="154" spans="1:15" ht="34">
       <c r="A154" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>114</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="155" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A155" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>113</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="156" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A156" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E156" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>393</v>
-      </c>
       <c r="H156" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M156" s="9" t="s">
         <v>50</v>
@@ -4959,13 +4959,13 @@
     </row>
     <row r="157" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A157" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E157" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="H157" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="M157" s="9" t="s">
         <v>100</v>
@@ -4976,19 +4976,19 @@
     </row>
     <row r="158" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A158" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="F158" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="H158" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I158" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="M158" s="9" t="s">
         <v>96</v>
@@ -4997,15 +4997,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="68">
+    <row r="159" spans="1:15" ht="17">
       <c r="A159" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>82</v>
@@ -5019,13 +5019,13 @@
     </row>
     <row r="160" spans="1:15" s="9" customFormat="1" ht="17">
       <c r="A160" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E160" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="H160" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="M160" s="9" t="s">
         <v>60</v>
@@ -5037,15 +5037,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="68">
+    <row r="161" spans="1:15" ht="17">
       <c r="A161" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>35</v>
@@ -5057,21 +5057,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="51">
+    <row r="162" spans="1:15" ht="17">
       <c r="A162" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="I162" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>43</v>
@@ -5083,15 +5083,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="68">
+    <row r="163" spans="1:15" ht="17">
       <c r="A163" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>100</v>
@@ -5100,12 +5100,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="68">
+    <row r="164" spans="1:15" ht="17">
       <c r="A164" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>88</v>
@@ -5114,15 +5114,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="51">
+    <row r="165" spans="1:15" ht="17">
       <c r="A165" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>60</v>
@@ -5134,7 +5134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="85">
+    <row r="166" spans="1:15" ht="34">
       <c r="A166" s="3" t="s">
         <v>93</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="68">
+    <row r="167" spans="1:15" ht="17">
       <c r="A167" s="3" t="s">
         <v>93</v>
       </c>
@@ -5170,19 +5170,19 @@
     </row>
     <row r="168" spans="1:15" s="9" customFormat="1" ht="34">
       <c r="A168" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E168" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="F168" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H168" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="I168" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="M168" s="9" t="s">
         <v>102</v>
@@ -5205,15 +5205,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="85">
+    <row r="170" spans="1:15" ht="34">
       <c r="A170" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>21</v>
@@ -5242,7 +5242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="102">
+    <row r="172" spans="1:15" ht="34">
       <c r="A172" s="3" t="s">
         <v>48</v>
       </c>
@@ -5259,15 +5259,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="34">
+    <row r="173" spans="1:15" ht="17">
       <c r="A173" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>67</v>
@@ -5279,15 +5279,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="102">
+    <row r="174" spans="1:15" ht="34">
       <c r="A174" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="H174" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>115</v>
@@ -5296,15 +5296,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="68">
+    <row r="175" spans="1:15" ht="34">
       <c r="C175" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>100</v>
@@ -5313,51 +5313,51 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="34">
+    <row r="176" spans="1:15" ht="17">
       <c r="E176" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="M176" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N176" s="1" t="s">
+      <c r="O176" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O176" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="136">
+    </row>
+    <row r="177" spans="1:15" ht="34">
       <c r="E177" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="136">
+    <row r="178" spans="1:15" ht="34">
       <c r="E178" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="68">
+    <row r="179" spans="1:15" ht="17">
       <c r="E179" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>100</v>
@@ -5366,51 +5366,51 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="136">
+    <row r="180" spans="1:15" ht="34">
       <c r="E180" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="136">
+    <row r="181" spans="1:15" ht="34">
       <c r="E181" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="34">
+    <row r="182" spans="1:15" ht="17">
       <c r="E182" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="M182" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N182" s="1" t="s">
+      <c r="O182" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O182" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="68">
+    </row>
+    <row r="183" spans="1:15" ht="17">
       <c r="E183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>100</v>
@@ -5419,15 +5419,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="68">
+    <row r="184" spans="1:15" ht="34">
       <c r="C184" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>100</v>
@@ -5438,13 +5438,13 @@
     </row>
     <row r="185" spans="1:15" ht="34">
       <c r="A185" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>92</v>
